--- a/Code/ProjectContractPlugin/填报系统表格修改.xlsx
+++ b/Code/ProjectContractPlugin/填报系统表格修改.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
   <si>
     <t>中文名</t>
   </si>
@@ -198,6 +198,103 @@
   </si>
   <si>
     <t>KeTiYuSuanBiao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JiBenXinXiBiao</t>
+  </si>
+  <si>
+    <t>基本信息表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位通信地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同负责单位联系电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeTongFuZeRenDianHua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeTongFuZeDanWeiTongXunDiZhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeTongFuZeDanWeiLianXiRen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeTongFuZeDanWeiLianXiRenDianHua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiBiao</t>
+  </si>
+  <si>
+    <t>课题表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位通信地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题负责单位联系电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiFuZeDanWeiTongXunDiZhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiFuZeDanWeiLianXiRen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeTiFuZeDanWeiLianXiRenDianHua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(700)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenYuanBiao</t>
+  </si>
+  <si>
+    <t>人员表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShouJi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DianHua</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -580,18 +677,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1099,6 +1197,177 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/ProjectContractPlugin/填报系统表格修改.xlsx
+++ b/Code/ProjectContractPlugin/填报系统表格修改.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
   <si>
     <t>中文名</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>DianHua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShengRi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -677,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1368,6 +1380,25 @@
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
